--- a/src/test/java/resources/companiesClient.xlsx
+++ b/src/test/java/resources/companiesClient.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java projects\test\src\test\java\resources\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>company</t>
   </si>
@@ -106,12 +106,16 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>Valid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1046,6 +1050,9 @@
       <c r="T2">
         <v>0</v>
       </c>
+      <c r="V2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/resources/companiesClient.xlsx
+++ b/src/test/java/resources/companiesClient.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java projects\test\src\test\java\resources\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>company</t>
   </si>
@@ -108,14 +108,25 @@
     <t>result</t>
   </si>
   <si>
-    <t>Valid</t>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>bob</t>
+  </si>
+  <si>
+    <t>sdfds</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -916,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W3" activeCellId="1" sqref="U1 W3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,8 +1061,191 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="V2" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>4590</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>4398</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>654</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>34859</v>
+      </c>
+      <c r="D4">
+        <v>4590</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4583445</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>4398</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3454</v>
+      </c>
+      <c r="N4">
+        <v>645</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>654</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>34859</v>
+      </c>
+      <c r="D5">
+        <v>4590</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4583445</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>4398</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>654</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
